--- a/Examples/NETS_NYPS_68Bus_LowDamping_SingleSgCase.xlsx
+++ b/Examples/NETS_NYPS_68Bus_LowDamping_SingleSgCase.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GitHub\Power-System-Analysis-Toolbox\Examples\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F9414DEC-F68C-4301-9992-8F0C4A2AB909}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0DE64949-CFFA-4584-806D-6D42F5B193C3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="19396" windowHeight="10395" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -3337,18 +3337,18 @@
         <v>0</v>
       </c>
       <c r="C3" s="14">
-        <v>30</v>
+        <v>300</v>
       </c>
       <c r="D3" s="14">
         <f>0.25*C3/10</f>
-        <v>0.75</v>
+        <v>7.5</v>
       </c>
       <c r="E3" s="14">
-        <v>2E-3</v>
+        <v>4.0000000000000001E-3</v>
       </c>
       <c r="F3" s="14">
         <f>E3/5</f>
-        <v>4.0000000000000002E-4</v>
+        <v>8.0000000000000004E-4</v>
       </c>
       <c r="G3" s="7"/>
     </row>
@@ -3367,10 +3367,11 @@
         <v>0.755</v>
       </c>
       <c r="E4" s="14">
-        <v>3.5000000000000003E-2</v>
+        <v>2E-3</v>
       </c>
       <c r="F4" s="14">
-        <v>5.8333333333333336E-3</v>
+        <f>E4/5</f>
+        <v>4.0000000000000002E-4</v>
       </c>
       <c r="G4" s="7"/>
       <c r="J4" s="2"/>

--- a/Examples/NETS_NYPS_68Bus_LowDamping_SingleSgCase.xlsx
+++ b/Examples/NETS_NYPS_68Bus_LowDamping_SingleSgCase.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GitHub\Power-System-Analysis-Toolbox\Examples\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0DE64949-CFFA-4584-806D-6D42F5B193C3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{657EB177-B149-42C1-BC59-641E849CA263}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="19396" windowHeight="10395" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -643,7 +643,7 @@
   <dimension ref="A1:L70"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C21" sqref="C21"/>
+      <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
@@ -3292,7 +3292,7 @@
   <dimension ref="A1:J70"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E4" sqref="E4"/>
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
@@ -3360,18 +3360,17 @@
         <v>0</v>
       </c>
       <c r="C4" s="14">
-        <v>30.2</v>
+        <v>12</v>
       </c>
       <c r="D4" s="14">
         <f t="shared" ref="D4:D18" si="0">0.25*C4/10</f>
-        <v>0.755</v>
+        <v>0.3</v>
       </c>
       <c r="E4" s="14">
-        <v>2E-3</v>
+        <v>3.5000000000000003E-2</v>
       </c>
       <c r="F4" s="14">
-        <f>E4/5</f>
-        <v>4.0000000000000002E-4</v>
+        <v>0</v>
       </c>
       <c r="G4" s="7"/>
       <c r="J4" s="2"/>

--- a/Examples/NETS_NYPS_68Bus_LowDamping_SingleSgCase.xlsx
+++ b/Examples/NETS_NYPS_68Bus_LowDamping_SingleSgCase.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24931"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25128"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GitHub\Power-System-Analysis-Toolbox\Examples\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{657EB177-B149-42C1-BC59-641E849CA263}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4F514B26-B825-46A0-9015-AB204ECC0436}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="19396" windowHeight="10395" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -3292,7 +3292,7 @@
   <dimension ref="A1:J70"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+      <selection activeCell="D18" sqref="D18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
